--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-ITI\15- Quality Assurance\1- Workshop\1- GIT\GitHub\learning-hub\Review Comments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE970FE-C0EB-493D-A748-CD5137FC15DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8C964-210E-4E3D-A3A7-DCB459D7FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="115">
   <si>
     <t>Doc Version</t>
   </si>
@@ -374,6 +374,66 @@
   <si>
     <t>Confirmed</t>
   </si>
+  <si>
+    <t>Class diagram</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>what are set category() and getcategory() functions?</t>
+  </si>
+  <si>
+    <t>catgory has id or no?</t>
+  </si>
+  <si>
+    <t>recording class not a photo class.</t>
+  </si>
+  <si>
+    <t>the content it self in the (article-video-recording) classes not in content class?</t>
+  </si>
+  <si>
+    <t>Mohamed mazrouaa</t>
+  </si>
+  <si>
+    <t>Category class</t>
+  </si>
+  <si>
+    <t>Recording class</t>
+  </si>
+  <si>
+    <t>Content class</t>
+  </si>
+  <si>
+    <t>Justified</t>
+  </si>
+  <si>
+    <t>Flowchart should have an start and end</t>
+  </si>
+  <si>
+    <t>Alaa osama</t>
+  </si>
+  <si>
+    <t>user should choose from article or upload not ( article/video/record)</t>
+  </si>
+  <si>
+    <t>Add content Flow chart</t>
+  </si>
+  <si>
+    <t>Categories Flow chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review comments </t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>18/3 comments need to be added</t>
+  </si>
+  <si>
+    <t>Review comments  document</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +473,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +530,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -490,11 +581,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,6 +659,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,27 +1044,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="48.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -891,7 +1077,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -920,7 +1106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
@@ -949,7 +1135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
@@ -978,7 +1164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -1007,7 +1193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1036,7 +1222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1065,7 +1251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1094,7 +1280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1152,7 +1338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1221,7 +1407,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>47</v>
       </c>
@@ -1250,7 +1436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
@@ -1308,7 +1494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
@@ -1337,7 +1523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -1366,7 +1552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -1395,7 +1581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1406,7 +1592,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1435,7 +1621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -1464,7 +1650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -1493,7 +1679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -1522,7 +1708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1551,7 +1737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1562,7 +1748,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1591,7 +1777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
@@ -1620,7 +1806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -1649,311 +1835,576 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="30" spans="1:9" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="18">
+        <v>30</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="19">
+        <v>45005</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="18">
+        <v>31</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="19">
+        <v>45005</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="18">
+        <v>32</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="19">
+        <v>45005</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="18">
+        <v>33</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="19">
+        <v>45005</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="28">
+        <v>34</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="30">
+        <v>45019</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="28">
+        <v>35</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="30">
+        <v>45019</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="28">
+        <v>36</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="30">
+        <v>45019</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="35">
+        <v>37</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="37">
+        <v>45023</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="13">
-        <v>30</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="C42" s="13">
+        <v>38</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E42" s="15">
         <v>45081</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13" t="s">
+      <c r="H42" s="13"/>
+      <c r="I42" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="43" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="13">
-        <v>31</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C43" s="13">
+        <v>39</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E43" s="15">
         <v>45081</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="F43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="s">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="44" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="13">
-        <v>32</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C44" s="13">
+        <v>40</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E44" s="15">
         <v>45081</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="F44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="45" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="13">
-        <v>33</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C45" s="13">
+        <v>41</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E45" s="15">
         <v>45081</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="F45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13" t="s">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="46" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="13">
-        <v>34</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="C46" s="13">
+        <v>42</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E46" s="15">
         <v>45081</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13" t="s">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="47" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="13">
-        <v>35</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C47" s="13">
+        <v>43</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E47" s="15">
         <v>45081</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="13" t="s">
+      <c r="F47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="48" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="13">
-        <v>36</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C48" s="13">
+        <v>44</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E48" s="15">
         <v>45081</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="F48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13" t="s">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="13">
-        <v>37</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C49" s="13">
+        <v>45</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E49" s="15">
         <v>45081</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="13" t="s">
+      <c r="F49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13" t="s">
+      <c r="H49" s="13"/>
+      <c r="I49" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="50" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="13">
-        <v>38</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C50" s="13">
+        <v>46</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E50" s="15">
         <v>45081</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="13" t="s">
+      <c r="F50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13" t="s">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+    <row r="51" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B51" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="13">
-        <v>39</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="C51" s="13">
+        <v>47</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E51" s="15">
         <v>45081</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="13" t="s">
+      <c r="F51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13" t="s">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="13">
-        <v>40</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="C52" s="13">
+        <v>48</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E52" s="15">
         <v>45081</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="F52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13" t="s">
+      <c r="H52" s="13"/>
+      <c r="I52" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1961,6 +2412,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8C964-210E-4E3D-A3A7-DCB459D7FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A44B06F-4FF7-4305-BCDB-3D607891FA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -19,17 +19,28 @@
     <definedName name="_Toc128090186" localSheetId="0">Sheet1!$G$5</definedName>
     <definedName name="_Toc128090188" localSheetId="0">Sheet1!$G$6</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="136">
   <si>
     <t>Doc Version</t>
   </si>
@@ -433,6 +444,70 @@
   </si>
   <si>
     <t>Review comments  document</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>V 2</t>
+  </si>
+  <si>
+    <t>No evidence for internal reviews</t>
+  </si>
+  <si>
+    <t>Review comments document</t>
+  </si>
+  <si>
+    <t>V 3</t>
+  </si>
+  <si>
+    <t>Review sheet is too general</t>
+  </si>
+  <si>
+    <t>Not clear</t>
+  </si>
+  <si>
+    <t>Mazrouaa</t>
+  </si>
+  <si>
+    <t>Need to be discussed</t>
+  </si>
+  <si>
+    <t>SRS-ADD-004 :   How to verify that
+SRS-ADD-007</t>
+  </si>
+  <si>
+    <t>Add feature</t>
+  </si>
+  <si>
+    <t>SRS-ADD-011 SRS-ADD-012  :    no added value</t>
+  </si>
+  <si>
+    <t>Notification feature</t>
+  </si>
+  <si>
+    <t>SRS-NOTIFI-004  :    Will he get notification if any article is added? How will he regiseter?</t>
+  </si>
+  <si>
+    <t>Done/Need to be discussed</t>
+  </si>
+  <si>
+    <t>Design document</t>
+  </si>
+  <si>
+    <t>Design document not found</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Sequence diagram</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>One sequence diagram</t>
   </si>
 </sst>
 </file>
@@ -611,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,76 +733,79 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,22 +1138,22 @@
     <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1835,281 +1913,281 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="30" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>30</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>45005</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>31</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>45005</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="I32" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>32</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>45005</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="I33" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>33</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>45005</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:9" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>34</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>45019</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="I36" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="27">
         <v>35</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>45019</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="I37" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>36</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>45019</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:9" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="I38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="33">
         <v>37</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="35">
         <v>45023</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="38" t="s">
+      <c r="I40" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
@@ -2406,6 +2484,214 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" spans="1:9" s="40" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="6">
+        <v>49</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="40" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="6">
+        <v>50</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="6">
+        <v>51</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="6">
+        <v>52</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="6">
+        <v>53</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="6">
+        <v>54</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="6">
+        <v>55</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A44B06F-4FF7-4305-BCDB-3D607891FA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB930C-98A5-4840-B05F-DDE8094E1D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="140">
   <si>
     <t>Doc Version</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>One sequence diagram</t>
+  </si>
+  <si>
+    <t>Backend code</t>
+  </si>
+  <si>
+    <t>Upload and add articles don’t work in categories page</t>
+  </si>
+  <si>
+    <t>Categories page</t>
+  </si>
+  <si>
+    <t>Done with another way</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,13 +811,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,17 +1161,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2213,7 +2231,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2267,7 +2285,7 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,7 +2312,7 @@
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -2321,7 +2339,7 @@
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2375,7 +2393,7 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2402,7 +2420,7 @@
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2429,7 +2447,7 @@
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2456,7 +2474,7 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2483,7 +2501,7 @@
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2497,7 +2515,7 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" s="40" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="39" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>115</v>
       </c>
@@ -2510,7 +2528,7 @@
       <c r="D54" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="38">
         <v>45033</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -2526,7 +2544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="40" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="39" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>115</v>
       </c>
@@ -2539,7 +2557,7 @@
       <c r="D55" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="38">
         <v>45033</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -2553,7 +2571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>47</v>
       </c>
@@ -2566,7 +2584,7 @@
       <c r="D56" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="38">
         <v>45033</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -2582,7 +2600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>47</v>
       </c>
@@ -2595,7 +2613,7 @@
       <c r="D57" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="38">
         <v>45033</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -2611,7 +2629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2642,7 @@
       <c r="D58" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="38">
         <v>45033</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -2640,7 +2658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>130</v>
       </c>
@@ -2653,7 +2671,7 @@
       <c r="D59" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="38">
         <v>45033</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -2667,7 +2685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>133</v>
       </c>
@@ -2680,7 +2698,7 @@
       <c r="D60" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="38">
         <v>45033</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -2692,6 +2710,30 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:9" s="41" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="41">
+        <v>56</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="42">
+        <v>45049</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB930C-98A5-4840-B05F-DDE8094E1D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA8487-2680-488F-B49A-BCC9D03CEEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="140">
   <si>
     <t>Doc Version</t>
   </si>
@@ -817,13 +817,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,17 +1161,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2229,7 +2229,9 @@
       <c r="G42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I42" s="13" t="s">
         <v>43</v>
       </c>
@@ -2285,7 +2287,7 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,7 +2312,9 @@
       <c r="G45" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I45" s="13" t="s">
         <v>43</v>
       </c>
@@ -2337,7 +2341,9 @@
       <c r="G46" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I46" s="13" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2397,9 @@
       <c r="G48" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I48" s="13" t="s">
         <v>139</v>
       </c>
@@ -2418,7 +2426,9 @@
       <c r="G49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I49" s="13" t="s">
         <v>43</v>
       </c>
@@ -2445,7 +2455,9 @@
       <c r="G50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I50" s="13" t="s">
         <v>43</v>
       </c>
@@ -2472,7 +2484,9 @@
       <c r="G51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I51" s="13" t="s">
         <v>43</v>
       </c>
@@ -2499,7 +2513,9 @@
       <c r="G52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="I52" s="13" t="s">
         <v>43</v>
       </c>
@@ -2713,26 +2729,26 @@
       </c>
     </row>
     <row r="61" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:9" s="41" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:9" s="40" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="40">
         <v>56</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="41">
         <v>45049</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="F62" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="40" t="s">
         <v>138</v>
       </c>
     </row>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA8487-2680-488F-B49A-BCC9D03CEEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC46F8-AAAB-4543-BAAE-DAF3A080D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="153">
   <si>
     <t>Doc Version</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Mazrouaa</t>
   </si>
   <si>
-    <t>Need to be discussed</t>
-  </si>
-  <si>
     <t>SRS-ADD-004 :   How to verify that
 SRS-ADD-007</t>
   </si>
@@ -489,9 +486,6 @@
     <t>SRS-NOTIFI-004  :    Will he get notification if any article is added? How will he regiseter?</t>
   </si>
   <si>
-    <t>Done/Need to be discussed</t>
-  </si>
-  <si>
     <t>Design document</t>
   </si>
   <si>
@@ -520,6 +514,54 @@
   </si>
   <si>
     <t>Done with another way</t>
+  </si>
+  <si>
+    <t>alaa</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>hasnaa</t>
+  </si>
+  <si>
+    <t>all team members</t>
+  </si>
+  <si>
+    <t>moataz</t>
+  </si>
+  <si>
+    <t>Username validation-password validation not in the login diagram
+construct db function not found</t>
+  </si>
+  <si>
+    <t>sequence daigrams</t>
+  </si>
+  <si>
+    <t>name of the function
+delete icon appear</t>
+  </si>
+  <si>
+    <t>nada</t>
+  </si>
+  <si>
+    <t>query arrow and its result are in opposite directions
+database connection not connection</t>
+  </si>
+  <si>
+    <t>V 1</t>
+  </si>
+  <si>
+    <t>remove un needed features replace it with components</t>
+  </si>
+  <si>
+    <t>get content diagram</t>
+  </si>
+  <si>
+    <t>get article diagram</t>
+  </si>
+  <si>
+    <t>No.comments</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,9 +2300,11 @@
       <c r="G43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="I43" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,9 +2329,11 @@
       <c r="G44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="I44" s="13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,7 +2416,9 @@
       <c r="G47" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="I47" s="13" t="s">
         <v>64</v>
       </c>
@@ -2401,7 +2449,7 @@
         <v>122</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2582,7 +2630,9 @@
       <c r="G55" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="I55" s="6" t="s">
         <v>121</v>
       </c>
@@ -2598,7 +2648,7 @@
         <v>51</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="38">
         <v>45033</v>
@@ -2607,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -2627,7 +2677,7 @@
         <v>52</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="38">
         <v>45033</v>
@@ -2636,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>122</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2656,7 +2706,7 @@
         <v>53</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" s="38">
         <v>45033</v>
@@ -2665,27 +2715,27 @@
         <v>8</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="6">
         <v>54</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E59" s="38">
         <v>45033</v>
@@ -2694,25 +2744,27 @@
         <v>8</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="I59" s="6" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="6">
         <v>55</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60" s="38">
         <v>45033</v>
@@ -2721,26 +2773,28 @@
         <v>8</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="I60" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:9" s="40" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="40">
         <v>56</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" s="41">
         <v>45049</v>
@@ -2749,7 +2803,159 @@
         <v>122</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:9" s="39" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="6">
+        <v>57</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="38">
+        <v>45054</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="39" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="6">
+        <v>58</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="38">
+        <v>45052</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="6">
+        <v>59</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="38">
+        <v>45052</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="6">
+        <v>60</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="38">
+        <v>45055</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="39" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="6">
+        <v>61</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="38">
+        <v>45057</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC46F8-AAAB-4543-BAAE-DAF3A080D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CADD70-1A2D-4764-8E44-4D64F7EAE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="155">
   <si>
     <t>Doc Version</t>
   </si>
@@ -562,6 +562,13 @@
   </si>
   <si>
     <t>No.comments</t>
+  </si>
+  <si>
+    <t>Change request document</t>
+  </si>
+  <si>
+    <t>The customer change requset need to be added
+Risk and actions of CR_01 need to be more obvious</t>
   </si>
 </sst>
 </file>
@@ -616,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +681,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,6 +879,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,15 +1207,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="118.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -2958,6 +2983,36 @@
         <v>139</v>
       </c>
     </row>
+    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:9" s="46" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="43">
+        <v>62</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="45">
+        <v>45058</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CADD70-1A2D-4764-8E44-4D64F7EAE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <definedName name="_Toc128090186" localSheetId="0">Sheet1!$G$5</definedName>
     <definedName name="_Toc128090188" localSheetId="0">Sheet1!$G$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="165">
   <si>
     <t>Doc Version</t>
   </si>
@@ -570,15 +564,45 @@
     <t>The customer change requset need to be added
 Risk and actions of CR_01 need to be more obvious</t>
   </si>
+  <si>
+    <t xml:space="preserve">test cases titels need to be more descriptive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preconditions are confusing in user and admin roles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test steps not clear it seems to be test data not steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS-ADDUSR-001 not covered in testcases </t>
+  </si>
+  <si>
+    <t>TC_LearningHub_adduser_006 : "too short " is subjective need to be more clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS-ADDUSR-008 not covered in testcases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS-ADDUSR-009 not covered in testcases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS-ADDUSR-010 not covered in testcases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Report </t>
+  </si>
+  <si>
+    <t>AddUser Feature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,8 +646,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +728,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -750,10 +794,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,9 +923,6 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,9 +935,32 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,7 +1018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1005,7 +1070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1199,46 +1264,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" ht="25.9" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1356,7 +1421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1414,7 +1479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1635,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>47</v>
       </c>
@@ -1628,7 +1693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
@@ -1686,7 +1751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -2390,7 +2455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>65</v>
       </c>
@@ -2448,7 +2513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
@@ -2807,8 +2872,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:9" s="40" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:9" s="40" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>134</v>
       </c>
@@ -2837,7 +2902,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:9" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:9" s="39" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>128</v>
@@ -2983,34 +3048,229 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:9" s="46" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
+    <row r="69" spans="1:9" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:9" s="45" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="42">
         <v>62</v>
       </c>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="45">
+      <c r="E70" s="44">
         <v>45058</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="43" t="s">
+      <c r="G70" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I70" s="43" t="s">
-        <v>43</v>
+      <c r="I70" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+    </row>
+    <row r="72" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="50">
+        <v>62</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="50">
+        <v>62</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="50">
+        <v>62</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="50">
+        <v>62</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="50">
+        <v>62</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="50">
+        <v>62</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="50">
+        <v>62</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="50">
+        <v>62</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Review Comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5AF88-71BB-4F24-9A83-43E429C80A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="180">
   <si>
     <t xml:space="preserve"> Review Comments </t>
   </si>
@@ -594,19 +600,51 @@
   <si>
     <t>Delete Feature</t>
   </si>
+  <si>
+    <t>TC 1 -&gt; User Instead of Normal User (Title)</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>Delete User Feature</t>
+  </si>
+  <si>
+    <t>TC 1  -&gt; User only Instead of normal (ER)</t>
+  </si>
+  <si>
+    <t>TC 2 -&gt; Admin only Instead of user "Admin" (ER)</t>
+  </si>
+  <si>
+    <t>Need one test case to validate that User do not have Delete User Button</t>
+  </si>
+  <si>
+    <t>Navigate Feature</t>
+  </si>
+  <si>
+    <t>TC 3,10 - &gt; navigation word in title not clear</t>
+  </si>
+  <si>
+    <t>TC 4,11 -&gt; How to test redirection to home page if i am already in home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC 6,13 -&gt; steps Should include Validate user information </t>
+  </si>
+  <si>
+    <t>TC 4 , TC 5 should be combined</t>
+  </si>
+  <si>
+    <t>User Credintial used are invalid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,7 +670,7 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="6" tint="0.399975585192419"/>
+      <color theme="6" tint="0.39994506668294322"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -653,157 +691,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,13 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,37 +724,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,204 +766,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1127,252 +835,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1412,16 +878,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,7 +893,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,7 +905,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,13 +917,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,7 +932,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,7 +941,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,13 +950,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,13 +965,13 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,89 +980,48 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1857,1614 +1279,1614 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.5714285714286" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="14" style="12" customWidth="1"/>
-    <col min="4" max="4" width="118.428571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" style="12" customWidth="1"/>
+    <col min="4" max="4" width="118.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="28" style="12" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" style="12" customWidth="1"/>
-    <col min="9" max="9" width="25.5714285714286" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="12"/>
+    <col min="7" max="7" width="48.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:9">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="25.8">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.6">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" ht="15.6">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:9">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="I5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.2">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="I6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="I7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:9">
-      <c r="A9" s="15" t="s">
+      <c r="I8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:9">
-      <c r="A10" s="15" t="s">
+      <c r="I9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:9">
-      <c r="A11" s="15" t="s">
+      <c r="I10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:9">
-      <c r="A12" s="15" t="s">
+      <c r="I11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A14" s="20" t="s">
+      <c r="I12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>11</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A15" s="20" t="s">
+      <c r="I14" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A16" s="20" t="s">
+      <c r="I15" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>13</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A17" s="20" t="s">
+      <c r="I16" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="20">
-        <v>14</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="19">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A18" s="20" t="s">
+      <c r="I17" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>15</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="54" customHeight="1" spans="1:9">
-      <c r="A19" s="20" t="s">
+      <c r="I18" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="54" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>16</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="22" t="s">
+      <c r="I19" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6">
+      <c r="A21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>22</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>45202</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:9">
-      <c r="A22" s="22" t="s">
+      <c r="I21" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>23</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>45202</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:9">
-      <c r="A23" s="22" t="s">
+      <c r="I22" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6">
+      <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>24</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>45202</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="22" t="s">
+      <c r="I23" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6">
+      <c r="A24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>25</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>45202</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:9">
-      <c r="A25" s="22" t="s">
+      <c r="I24" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6">
+      <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>26</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>45202</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:9">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" ht="15.75" spans="1:9">
-      <c r="A27" s="15" t="s">
+      <c r="I25" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6">
+      <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>27</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:9">
-      <c r="A28" s="15" t="s">
+      <c r="I27" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6">
+      <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>28</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:9">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:9" ht="15.6">
+      <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>29</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A31" s="25" t="s">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.6">
+      <c r="A31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>30</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>45005</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.6">
+      <c r="A32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>31</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>45005</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A33" s="25" t="s">
+      <c r="I32" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.6">
+      <c r="A33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>32</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <v>45005</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A34" s="25" t="s">
+      <c r="I33" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.6">
+      <c r="A34" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>33</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>45005</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" s="5" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A36" s="30" t="s">
+      <c r="I34" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.6">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="15.6">
+      <c r="A36" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="29">
         <v>34</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>45019</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A37" s="30" t="s">
+      <c r="I36" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="15.6">
+      <c r="A37" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <v>35</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>45019</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A38" s="30" t="s">
+      <c r="I37" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="15.6">
+      <c r="A38" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="29">
         <v>36</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>45019</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" s="6" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A40" s="36" t="s">
+      <c r="I38" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1" ht="15.6">
+      <c r="A40" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>37</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <v>45023</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="1:9">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" ht="79.5" customHeight="1" spans="1:9">
-      <c r="A42" s="41" t="s">
+      <c r="I40" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:9" ht="79.5" customHeight="1">
+      <c r="A42" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="40">
         <v>38</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="42">
         <v>45081</v>
       </c>
-      <c r="F42" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="41" t="s">
+      <c r="F42" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A43" s="41" t="s">
+      <c r="I42" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A43" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="40">
         <v>39</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="42">
         <v>45081</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="41" t="s">
+      <c r="F43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A44" s="41" t="s">
+      <c r="I43" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A44" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="40">
         <v>40</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="42">
         <v>45081</v>
       </c>
-      <c r="F44" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="41" t="s">
+      <c r="F44" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="I44" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A45" s="41" t="s">
+      <c r="I44" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A45" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="40">
         <v>41</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="42">
         <v>45081</v>
       </c>
-      <c r="F45" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="41" t="s">
+      <c r="F45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I45" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" ht="31.5" spans="1:9">
-      <c r="A46" s="41" t="s">
+      <c r="I45" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31.2">
+      <c r="A46" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="40">
         <v>42</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="42">
         <v>45081</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="41" t="s">
+      <c r="F46" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A47" s="41" t="s">
+      <c r="I46" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A47" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="40">
         <v>43</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="42">
         <v>45081</v>
       </c>
-      <c r="F47" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="41" t="s">
+      <c r="F47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="41" t="s">
+      <c r="I47" s="40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" ht="47.25" spans="1:9">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:9" ht="46.8">
+      <c r="A48" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="40">
         <v>44</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="42">
         <v>45081</v>
       </c>
-      <c r="F48" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="41" t="s">
+      <c r="F48" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A49" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="40">
         <v>45</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="42">
         <v>45081</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="41" t="s">
+      <c r="F49" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A50" s="41" t="s">
+      <c r="I49" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A50" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="40">
         <v>46</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="42">
         <v>45081</v>
       </c>
-      <c r="F50" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="41" t="s">
+      <c r="F50" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I50" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A51" s="41" t="s">
+      <c r="I50" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A51" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="40">
         <v>47</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="42">
         <v>45081</v>
       </c>
-      <c r="F51" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="41" t="s">
+      <c r="F51" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I51" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A52" s="41" t="s">
+      <c r="I51" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A52" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="40">
         <v>48</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="42">
         <v>45081</v>
       </c>
-      <c r="F52" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="41" t="s">
+      <c r="F52" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" spans="1:9">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A54" s="15" t="s">
+      <c r="I52" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>49</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="43">
         <v>45033</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="F54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A55" s="15" t="s">
+      <c r="I54" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>50</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="43">
         <v>45033</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="15" t="s">
+      <c r="F55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>51</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E56" s="43">
         <v>45033</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I56" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A57" s="15" t="s">
+      <c r="I56" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>52</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="43">
         <v>45033</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>53</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="43">
         <v>45033</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>54</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="43">
         <v>45033</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="15" t="s">
+      <c r="F59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>55</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E60" s="43">
         <v>45033</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" s="8" customFormat="1" ht="19.9" customHeight="1" spans="1:9">
+    <row r="61" spans="1:9" s="2" customFormat="1"/>
+    <row r="62" spans="1:9" s="8" customFormat="1" ht="19.95" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>139</v>
       </c>
@@ -3477,7 +2899,7 @@
       <c r="D62" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="44">
         <v>45049</v>
       </c>
       <c r="F62" s="8" t="s">
@@ -3493,194 +2915,194 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1"/>
-    <row r="64" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A64" s="15" t="s">
+    <row r="63" spans="1:9" s="2" customFormat="1"/>
+    <row r="64" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>57</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="43">
         <v>45054</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I64" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A65" s="15" t="s">
+      <c r="I64" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>58</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="43">
         <v>45052</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A66" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>59</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="43">
         <v>45052</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A67" s="15" t="s">
+      <c r="I66" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>60</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="43">
         <v>45055</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A68" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>61</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="43">
         <v>45057</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1"/>
-    <row r="70" s="9" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A70" s="46" t="s">
+    <row r="69" spans="1:9" s="2" customFormat="1"/>
+    <row r="70" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A70" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="45">
         <v>62</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="48">
+      <c r="E70" s="47">
         <v>45058</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A71" s="49"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-    </row>
-    <row r="72" s="10" customFormat="1" ht="18.75" spans="1:7">
+      <c r="I70" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A71" s="48"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+    </row>
+    <row r="72" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A72" s="10" t="s">
         <v>155</v>
       </c>
@@ -3690,10 +3112,10 @@
       <c r="C72" s="10">
         <v>62</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="52">
         <v>45058</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -3703,7 +3125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="73" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A73" s="10" t="s">
         <v>155</v>
       </c>
@@ -3713,10 +3135,10 @@
       <c r="C73" s="10">
         <v>63</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="52">
         <v>45058</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -3726,7 +3148,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="74" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A74" s="10" t="s">
         <v>155</v>
       </c>
@@ -3736,10 +3158,10 @@
       <c r="C74" s="10">
         <v>64</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="52">
         <v>45058</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -3749,7 +3171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="75" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A75" s="10" t="s">
         <v>155</v>
       </c>
@@ -3759,10 +3181,10 @@
       <c r="C75" s="10">
         <v>65</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="52">
         <v>45058</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -3772,7 +3194,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="76" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -3782,10 +3204,10 @@
       <c r="C76" s="10">
         <v>66</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="52">
         <v>45058</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -3795,7 +3217,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="77" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
@@ -3805,10 +3227,10 @@
       <c r="C77" s="10">
         <v>67</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="52">
         <v>45058</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -3818,7 +3240,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="78" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A78" s="10" t="s">
         <v>155</v>
       </c>
@@ -3828,10 +3250,10 @@
       <c r="C78" s="10">
         <v>68</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="53">
+      <c r="E78" s="52">
         <v>45058</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -3841,7 +3263,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="79" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A79" s="10" t="s">
         <v>155</v>
       </c>
@@ -3851,10 +3273,10 @@
       <c r="C79" s="10">
         <v>69</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E79" s="52">
         <v>45058</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -3864,24 +3286,254 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" s="11" customFormat="1" ht="24" customHeight="1" spans="2:7">
-      <c r="B80" s="55" t="s">
+    <row r="80" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="B80" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C80" s="11">
         <v>70</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="57">
+      <c r="E80" s="55">
         <v>45058</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="11" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A81" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="10">
+        <v>71</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A82" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="10">
+        <v>72</v>
+      </c>
+      <c r="D82" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A83" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="10">
+        <v>73</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A84" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="10">
+        <v>74</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A85" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="10">
+        <v>75</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A86" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="10">
+        <v>76</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A87" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="10">
+        <v>77</v>
+      </c>
+      <c r="D87" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A88" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="10">
+        <v>78</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A89" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="10">
+        <v>79</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="10" customFormat="1" ht="18">
+      <c r="A90" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="10">
+        <v>80</v>
+      </c>
+      <c r="D90" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="52">
+        <v>45058</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +3541,6 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="170">
   <si>
     <t xml:space="preserve"> Review Comments </t>
   </si>
@@ -594,19 +594,21 @@
   <si>
     <t>Delete Feature</t>
   </si>
+  <si>
+    <t>Add Feature</t>
+  </si>
+  <si>
+    <t>missing (select category )step in test cases from TC_LearningHub_Add_009 to TC_LearningHub_Add_014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,7 +634,7 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="6" tint="0.399975585192419"/>
+      <color theme="6" tint="0.39994506668294322"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -653,157 +655,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,13 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,37 +688,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,204 +730,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1127,254 +799,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1412,16 +842,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,7 +857,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,7 +869,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,13 +881,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,7 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,7 +905,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,13 +914,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,13 +929,13 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,7 +944,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,76 +953,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1857,1614 +1243,1614 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.5714285714286" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="14" style="12" customWidth="1"/>
-    <col min="4" max="4" width="118.428571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" style="12" customWidth="1"/>
+    <col min="4" max="4" width="118.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="28" style="12" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" style="12" customWidth="1"/>
-    <col min="9" max="9" width="25.5714285714286" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="12"/>
+    <col min="7" max="7" width="48.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:9">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="26.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:9">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="I5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.5">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="I6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="I7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:9">
-      <c r="A9" s="15" t="s">
+      <c r="I8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:9">
-      <c r="A10" s="15" t="s">
+      <c r="I9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:9">
-      <c r="A11" s="15" t="s">
+      <c r="I10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:9">
-      <c r="A12" s="15" t="s">
+      <c r="I11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A14" s="20" t="s">
+      <c r="I12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>11</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A15" s="20" t="s">
+      <c r="I14" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A16" s="20" t="s">
+      <c r="I15" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>13</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A17" s="20" t="s">
+      <c r="I16" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="20">
-        <v>14</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="19">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A18" s="20" t="s">
+      <c r="I17" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>15</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="54" customHeight="1" spans="1:9">
-      <c r="A19" s="20" t="s">
+      <c r="I18" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="54" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>16</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="22" t="s">
+      <c r="I19" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>22</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>45202</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:9">
-      <c r="A22" s="22" t="s">
+      <c r="I21" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>23</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>45202</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:9">
-      <c r="A23" s="22" t="s">
+      <c r="I22" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>24</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>45202</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="22" t="s">
+      <c r="I23" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="A24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>25</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>45202</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:9">
-      <c r="A25" s="22" t="s">
+      <c r="I24" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>26</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>45202</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:9">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" ht="15.75" spans="1:9">
-      <c r="A27" s="15" t="s">
+      <c r="I25" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>27</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:9">
-      <c r="A28" s="15" t="s">
+      <c r="I27" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>28</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:9">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>29</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A31" s="25" t="s">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.75">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.75">
+      <c r="A31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>30</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>45005</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.75">
+      <c r="A32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>31</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>45005</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A33" s="25" t="s">
+      <c r="I32" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.75">
+      <c r="A33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>32</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <v>45005</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A34" s="25" t="s">
+      <c r="I33" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.75">
+      <c r="A34" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>33</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>45005</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" s="5" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A36" s="30" t="s">
+      <c r="I34" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="15.75">
+      <c r="A36" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="29">
         <v>34</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>45019</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A37" s="30" t="s">
+      <c r="I36" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="15.75">
+      <c r="A37" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <v>35</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>45019</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A38" s="30" t="s">
+      <c r="I37" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="15.75">
+      <c r="A38" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="29">
         <v>36</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>45019</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" s="6" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A40" s="36" t="s">
+      <c r="I38" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15.75">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1" ht="15.75">
+      <c r="A40" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>37</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <v>45023</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="1:9">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" ht="79.5" customHeight="1" spans="1:9">
-      <c r="A42" s="41" t="s">
+      <c r="I40" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:9" ht="79.5" customHeight="1">
+      <c r="A42" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="40">
         <v>38</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="42">
         <v>45081</v>
       </c>
-      <c r="F42" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="41" t="s">
+      <c r="F42" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A43" s="41" t="s">
+      <c r="I42" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A43" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="40">
         <v>39</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="42">
         <v>45081</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="41" t="s">
+      <c r="F43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A44" s="41" t="s">
+      <c r="I43" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A44" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="40">
         <v>40</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="42">
         <v>45081</v>
       </c>
-      <c r="F44" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="41" t="s">
+      <c r="F44" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="I44" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A45" s="41" t="s">
+      <c r="I44" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A45" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="40">
         <v>41</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="42">
         <v>45081</v>
       </c>
-      <c r="F45" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="41" t="s">
+      <c r="F45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I45" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" ht="31.5" spans="1:9">
-      <c r="A46" s="41" t="s">
+      <c r="I45" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31.5">
+      <c r="A46" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="40">
         <v>42</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="42">
         <v>45081</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="41" t="s">
+      <c r="F46" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A47" s="41" t="s">
+      <c r="I46" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A47" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="40">
         <v>43</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="42">
         <v>45081</v>
       </c>
-      <c r="F47" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="41" t="s">
+      <c r="F47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="41" t="s">
+      <c r="I47" s="40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" ht="47.25" spans="1:9">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:9" ht="47.25">
+      <c r="A48" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="40">
         <v>44</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="42">
         <v>45081</v>
       </c>
-      <c r="F48" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="41" t="s">
+      <c r="F48" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A49" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="40">
         <v>45</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="42">
         <v>45081</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="41" t="s">
+      <c r="F49" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A50" s="41" t="s">
+      <c r="I49" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A50" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="40">
         <v>46</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="42">
         <v>45081</v>
       </c>
-      <c r="F50" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="41" t="s">
+      <c r="F50" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I50" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A51" s="41" t="s">
+      <c r="I50" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A51" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="40">
         <v>47</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="42">
         <v>45081</v>
       </c>
-      <c r="F51" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="41" t="s">
+      <c r="F51" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I51" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" ht="35.25" customHeight="1" spans="1:9">
-      <c r="A52" s="41" t="s">
+      <c r="I51" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A52" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="40">
         <v>48</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="42">
         <v>45081</v>
       </c>
-      <c r="F52" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="41" t="s">
+      <c r="F52" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" spans="1:9">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A54" s="15" t="s">
+      <c r="I52" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>49</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="43">
         <v>45033</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="F54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A55" s="15" t="s">
+      <c r="I54" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>50</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="43">
         <v>45033</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="15" t="s">
+      <c r="F55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>51</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E56" s="43">
         <v>45033</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I56" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A57" s="15" t="s">
+      <c r="I56" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>52</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="43">
         <v>45033</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>53</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="43">
         <v>45033</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>54</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="43">
         <v>45033</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="15" t="s">
+      <c r="F59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>55</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E60" s="43">
         <v>45033</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" s="8" customFormat="1" ht="19.9" customHeight="1" spans="1:9">
+    <row r="61" spans="1:9" s="2" customFormat="1"/>
+    <row r="62" spans="1:9" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>139</v>
       </c>
@@ -3477,7 +2863,7 @@
       <c r="D62" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="44">
         <v>45049</v>
       </c>
       <c r="F62" s="8" t="s">
@@ -3493,194 +2879,194 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1"/>
-    <row r="64" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A64" s="15" t="s">
+    <row r="63" spans="1:9" s="2" customFormat="1"/>
+    <row r="64" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>57</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="43">
         <v>45054</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I64" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" s="7" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A65" s="15" t="s">
+      <c r="I64" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="7" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>58</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="43">
         <v>45052</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A66" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>59</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="43">
         <v>45052</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A67" s="15" t="s">
+      <c r="I66" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>60</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="43">
         <v>45055</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A68" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>61</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="43">
         <v>45057</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1"/>
-    <row r="70" s="9" customFormat="1" ht="33.6" customHeight="1" spans="1:9">
-      <c r="A70" s="46" t="s">
+    <row r="69" spans="1:9" s="2" customFormat="1"/>
+    <row r="70" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A70" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="45">
         <v>62</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="48">
+      <c r="E70" s="47">
         <v>45058</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A71" s="49"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-    </row>
-    <row r="72" s="10" customFormat="1" ht="18.75" spans="1:7">
+      <c r="I70" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A71" s="48"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+    </row>
+    <row r="72" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A72" s="10" t="s">
         <v>155</v>
       </c>
@@ -3690,10 +3076,10 @@
       <c r="C72" s="10">
         <v>62</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="52">
         <v>45058</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -3703,7 +3089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="73" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A73" s="10" t="s">
         <v>155</v>
       </c>
@@ -3713,10 +3099,10 @@
       <c r="C73" s="10">
         <v>63</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="52">
         <v>45058</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -3726,7 +3112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="74" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A74" s="10" t="s">
         <v>155</v>
       </c>
@@ -3736,10 +3122,10 @@
       <c r="C74" s="10">
         <v>64</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="52">
         <v>45058</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -3749,7 +3135,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="75" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A75" s="10" t="s">
         <v>155</v>
       </c>
@@ -3759,10 +3145,10 @@
       <c r="C75" s="10">
         <v>65</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="52">
         <v>45058</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -3772,7 +3158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="76" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -3782,10 +3168,10 @@
       <c r="C76" s="10">
         <v>66</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="52">
         <v>45058</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -3795,7 +3181,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="77" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
@@ -3805,10 +3191,10 @@
       <c r="C77" s="10">
         <v>67</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="52">
         <v>45058</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -3818,7 +3204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="78" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A78" s="10" t="s">
         <v>155</v>
       </c>
@@ -3828,10 +3214,10 @@
       <c r="C78" s="10">
         <v>68</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="53">
+      <c r="E78" s="52">
         <v>45058</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -3841,7 +3227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" s="10" customFormat="1" ht="18.75" spans="1:7">
+    <row r="79" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A79" s="10" t="s">
         <v>155</v>
       </c>
@@ -3851,10 +3237,10 @@
       <c r="C79" s="10">
         <v>69</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E79" s="52">
         <v>45058</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -3864,11 +3250,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" s="11" customFormat="1" ht="24" customHeight="1" spans="2:7">
+    <row r="80" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A80" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="B80" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="55">
         <v>70</v>
       </c>
       <c r="D80" s="56" t="s">
@@ -3883,13 +3272,127 @@
       <c r="G80" s="55" t="s">
         <v>167</v>
       </c>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+    </row>
+    <row r="81" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A81" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="55">
+        <v>71</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="57">
+        <v>45058</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="58"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Review Comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5AF88-71BB-4F24-9A83-43E429C80A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="182">
   <si>
     <t xml:space="preserve"> Review Comments </t>
   </si>
@@ -636,11 +630,17 @@
   <si>
     <t>User Credintial used are invalid</t>
   </si>
+  <si>
+    <t>missing (select category )step in test cases from TC_LearningHub_Add_009 to TC_LearningHub_Add_014</t>
+  </si>
+  <si>
+    <t>Add Feature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,16 +1003,23 @@
     <xf numFmtId="14" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1284,41 +1291,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="B83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="14" style="12" customWidth="1"/>
-    <col min="4" max="4" width="118.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="118.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="28" style="12" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="12"/>
+    <col min="7" max="7" width="48.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="26.25">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.6">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.2">
+    <row r="6" spans="1:9" ht="31.5">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1822,7 +1829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1833,7 +1840,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="21" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="21" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1989,7 +1996,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
@@ -2076,7 +2083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.75">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2087,7 +2094,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.6">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A31" s="24" t="s">
         <v>74</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.6">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A32" s="24" t="s">
         <v>74</v>
       </c>
@@ -2145,7 +2152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.6">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A33" s="24" t="s">
         <v>74</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.6">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A34" s="24" t="s">
         <v>74</v>
       </c>
@@ -2203,7 +2210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.6">
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2214,7 +2221,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="15.6">
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="15.75">
       <c r="A36" s="29" t="s">
         <v>85</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="15.6">
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="15.75">
       <c r="A37" s="29" t="s">
         <v>85</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="15.6">
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="15.75">
       <c r="A38" s="29" t="s">
         <v>89</v>
       </c>
@@ -2301,7 +2308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6">
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15.75">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -2312,7 +2319,7 @@
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" ht="15.6">
+    <row r="40" spans="1:9" s="6" customFormat="1" ht="15.75">
       <c r="A40" s="35" t="s">
         <v>90</v>
       </c>
@@ -2341,7 +2348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -2468,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31.2">
+    <row r="46" spans="1:9" ht="31.5">
       <c r="A46" s="40" t="s">
         <v>61</v>
       </c>
@@ -2526,7 +2533,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="46.8">
+    <row r="48" spans="1:9" ht="47.25">
       <c r="A48" s="40" t="s">
         <v>36</v>
       </c>
@@ -2671,7 +2678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -2886,7 +2893,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" s="2" customFormat="1"/>
-    <row r="62" spans="1:9" s="8" customFormat="1" ht="19.95" customHeight="1">
+    <row r="62" spans="1:9" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>139</v>
       </c>
@@ -3102,7 +3109,7 @@
       <c r="H71" s="48"/>
       <c r="I71" s="48"/>
     </row>
-    <row r="72" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="72" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A72" s="10" t="s">
         <v>155</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="73" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A73" s="10" t="s">
         <v>155</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="74" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A74" s="10" t="s">
         <v>155</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="75" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A75" s="10" t="s">
         <v>155</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="76" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="77" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
@@ -3240,7 +3247,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="78" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A78" s="10" t="s">
         <v>155</v>
       </c>
@@ -3263,7 +3270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="10" customFormat="1" ht="18">
+    <row r="79" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A79" s="10" t="s">
         <v>155</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="81" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A81" s="10" t="s">
         <v>155</v>
       </c>
@@ -3329,7 +3336,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="82" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A82" s="10" t="s">
         <v>155</v>
       </c>
@@ -3352,7 +3359,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="83" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A83" s="10" t="s">
         <v>155</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="84" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A84" s="10" t="s">
         <v>155</v>
       </c>
@@ -3385,7 +3392,7 @@
       <c r="C84" s="10">
         <v>74</v>
       </c>
-      <c r="D84" s="57" t="s">
+      <c r="D84" s="56" t="s">
         <v>173</v>
       </c>
       <c r="E84" s="52">
@@ -3398,7 +3405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="85" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A85" s="10" t="s">
         <v>155</v>
       </c>
@@ -3408,7 +3415,7 @@
       <c r="C85" s="10">
         <v>75</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="56" t="s">
         <v>175</v>
       </c>
       <c r="E85" s="52">
@@ -3421,7 +3428,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="86" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A86" s="10" t="s">
         <v>155</v>
       </c>
@@ -3431,7 +3438,7 @@
       <c r="C86" s="10">
         <v>76</v>
       </c>
-      <c r="D86" s="57" t="s">
+      <c r="D86" s="56" t="s">
         <v>176</v>
       </c>
       <c r="E86" s="52">
@@ -3444,7 +3451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="87" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A87" s="10" t="s">
         <v>155</v>
       </c>
@@ -3454,7 +3461,7 @@
       <c r="C87" s="10">
         <v>77</v>
       </c>
-      <c r="D87" s="57" t="s">
+      <c r="D87" s="56" t="s">
         <v>177</v>
       </c>
       <c r="E87" s="52">
@@ -3467,7 +3474,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="88" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A88" s="10" t="s">
         <v>155</v>
       </c>
@@ -3477,7 +3484,7 @@
       <c r="C88" s="10">
         <v>78</v>
       </c>
-      <c r="D88" s="57" t="s">
+      <c r="D88" s="56" t="s">
         <v>177</v>
       </c>
       <c r="E88" s="52">
@@ -3490,7 +3497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="89" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A89" s="10" t="s">
         <v>155</v>
       </c>
@@ -3500,7 +3507,7 @@
       <c r="C89" s="10">
         <v>79</v>
       </c>
-      <c r="D89" s="57" t="s">
+      <c r="D89" s="56" t="s">
         <v>178</v>
       </c>
       <c r="E89" s="52">
@@ -3513,7 +3520,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="10" customFormat="1" ht="18">
+    <row r="90" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A90" s="10" t="s">
         <v>155</v>
       </c>
@@ -3523,7 +3530,7 @@
       <c r="C90" s="10">
         <v>80</v>
       </c>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="56" t="s">
         <v>179</v>
       </c>
       <c r="E90" s="52">
@@ -3535,6 +3542,31 @@
       <c r="G90" s="10" t="s">
         <v>170</v>
       </c>
+    </row>
+    <row r="91" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A91" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="10">
+        <v>81</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="60">
+        <v>45058</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\learning-hub\Review Comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80052B-4A34-49B6-9341-5F4A7CDD663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="188">
   <si>
     <t xml:space="preserve"> Review Comments </t>
   </si>
@@ -636,15 +642,33 @@
   <si>
     <t>Add Feature</t>
   </si>
+  <si>
+    <t>Tarek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcases title is not descriptive enough </t>
+  </si>
+  <si>
+    <t>Follow Feature</t>
+  </si>
+  <si>
+    <t>add this step in the first testcase "1.Find the category page that the user wants to unfollow."</t>
+  </si>
+  <si>
+    <t>notification Feature</t>
+  </si>
+  <si>
+    <t>the steps of all testcases are not follow the same sequence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +718,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -840,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,20 +1037,27 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,41 +1329,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="14" style="12" customWidth="1"/>
-    <col min="4" max="4" width="118.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="118.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="28" style="12" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="48.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" ht="25.8">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.6">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +1450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5">
+    <row r="6" spans="1:9" ht="31.2">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -1528,7 +1566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1829,7 +1867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1840,7 +1878,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="21" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +1936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="21" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +2023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1996,7 +2034,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
@@ -2025,7 +2063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -2054,7 +2092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
@@ -2083,7 +2121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.75">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2094,7 +2132,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.6">
       <c r="A31" s="24" t="s">
         <v>74</v>
       </c>
@@ -2123,7 +2161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.6">
       <c r="A32" s="24" t="s">
         <v>74</v>
       </c>
@@ -2152,7 +2190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.6">
       <c r="A33" s="24" t="s">
         <v>74</v>
       </c>
@@ -2181,7 +2219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.6">
       <c r="A34" s="24" t="s">
         <v>74</v>
       </c>
@@ -2210,7 +2248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.75">
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2221,7 +2259,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="15.75">
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="15.6">
       <c r="A36" s="29" t="s">
         <v>85</v>
       </c>
@@ -2250,7 +2288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="15.75">
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="15.6">
       <c r="A37" s="29" t="s">
         <v>85</v>
       </c>
@@ -2279,7 +2317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="15.75">
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="15.6">
       <c r="A38" s="29" t="s">
         <v>89</v>
       </c>
@@ -2308,7 +2346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="15.75">
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -2319,7 +2357,7 @@
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" ht="15.75">
+    <row r="40" spans="1:9" s="6" customFormat="1" ht="15.6">
       <c r="A40" s="35" t="s">
         <v>90</v>
       </c>
@@ -2348,7 +2386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -2475,7 +2513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31.5">
+    <row r="46" spans="1:9" ht="31.2">
       <c r="A46" s="40" t="s">
         <v>61</v>
       </c>
@@ -2533,7 +2571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="47.25">
+    <row r="48" spans="1:9" ht="46.8">
       <c r="A48" s="40" t="s">
         <v>36</v>
       </c>
@@ -2678,7 +2716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -2893,7 +2931,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" s="2" customFormat="1"/>
-    <row r="62" spans="1:9" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="62" spans="1:9" s="8" customFormat="1" ht="19.95" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>139</v>
       </c>
@@ -3109,7 +3147,7 @@
       <c r="H71" s="48"/>
       <c r="I71" s="48"/>
     </row>
-    <row r="72" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="72" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A72" s="10" t="s">
         <v>155</v>
       </c>
@@ -3131,8 +3169,14 @@
       <c r="G72" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H72" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A73" s="10" t="s">
         <v>155</v>
       </c>
@@ -3154,8 +3198,14 @@
       <c r="G73" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H73" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A74" s="10" t="s">
         <v>155</v>
       </c>
@@ -3177,8 +3227,14 @@
       <c r="G74" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H74" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A75" s="10" t="s">
         <v>155</v>
       </c>
@@ -3200,8 +3256,14 @@
       <c r="G75" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H75" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -3223,8 +3285,14 @@
       <c r="G76" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H76" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
@@ -3246,8 +3314,14 @@
       <c r="G77" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H77" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A78" s="10" t="s">
         <v>155</v>
       </c>
@@ -3269,8 +3343,14 @@
       <c r="G78" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="10" customFormat="1" ht="18.75">
+      <c r="H78" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A79" s="10" t="s">
         <v>155</v>
       </c>
@@ -3291,6 +3371,12 @@
       </c>
       <c r="G79" s="10" t="s">
         <v>157</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I79" s="45" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1">
@@ -3313,7 +3399,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="81" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A81" s="10" t="s">
         <v>155</v>
       </c>
@@ -3336,7 +3422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="82" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A82" s="10" t="s">
         <v>155</v>
       </c>
@@ -3359,7 +3445,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="83" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A83" s="10" t="s">
         <v>155</v>
       </c>
@@ -3382,7 +3468,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="84" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A84" s="10" t="s">
         <v>155</v>
       </c>
@@ -3405,7 +3491,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="85" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A85" s="10" t="s">
         <v>155</v>
       </c>
@@ -3428,7 +3514,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="86" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A86" s="10" t="s">
         <v>155</v>
       </c>
@@ -3451,7 +3537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="87" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A87" s="10" t="s">
         <v>155</v>
       </c>
@@ -3474,7 +3560,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="88" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A88" s="10" t="s">
         <v>155</v>
       </c>
@@ -3497,7 +3583,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="89" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A89" s="10" t="s">
         <v>155</v>
       </c>
@@ -3520,7 +3606,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="90" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A90" s="10" t="s">
         <v>155</v>
       </c>
@@ -3547,16 +3633,16 @@
       <c r="A91" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="57" t="s">
         <v>165</v>
       </c>
       <c r="C91" s="10">
         <v>81</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="60">
+      <c r="E91" s="59">
         <v>45058</v>
       </c>
       <c r="F91" s="10" t="s">
@@ -3565,8 +3651,100 @@
       <c r="G91" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+    </row>
+    <row r="92" spans="1:9" s="61" customFormat="1" ht="18">
+      <c r="A92" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="61">
+        <v>82</v>
+      </c>
+      <c r="D92" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="63">
+        <v>45064</v>
+      </c>
+      <c r="F92" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="61" customFormat="1" ht="18">
+      <c r="A93" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="61">
+        <v>83</v>
+      </c>
+      <c r="D93" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="63">
+        <v>45064</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G93" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="61" customFormat="1" ht="18">
+      <c r="A94" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="61">
+        <v>84</v>
+      </c>
+      <c r="D94" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" s="63">
+        <v>45064</v>
+      </c>
+      <c r="F94" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G94" s="61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="61" customFormat="1" ht="18">
+      <c r="A95" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="61">
+        <v>85</v>
+      </c>
+      <c r="D95" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" s="63">
+        <v>45064</v>
+      </c>
+      <c r="F95" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" s="61" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\learning-hub\Review Comments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80052B-4A34-49B6-9341-5F4A7CDD663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54693DF7-A460-4449-81BE-A2B1E6501646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="193">
   <si>
     <t xml:space="preserve"> Review Comments </t>
   </si>
@@ -660,6 +660,21 @@
   <si>
     <t>the steps of all testcases are not follow the same sequence</t>
   </si>
+  <si>
+    <t>Test Strategy</t>
+  </si>
+  <si>
+    <t>bugs life cycle will not contain deferred</t>
+  </si>
+  <si>
+    <t>Eng.Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>defect management</t>
+  </si>
+  <si>
+    <t>Done(not missing)</t>
+  </si>
 </sst>
 </file>
 
@@ -668,7 +683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +742,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +829,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -871,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,14 +1072,23 @@
     <xf numFmtId="14" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1351,17 +1388,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.8">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.6">
       <c r="A2" s="13" t="s">
@@ -3651,99 +3688,143 @@
       <c r="G91" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-    </row>
-    <row r="92" spans="1:9" s="61" customFormat="1" ht="18">
+      <c r="H91" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="I91" s="66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="60" customFormat="1" ht="18">
       <c r="A92" s="57" t="s">
         <v>155</v>
       </c>
       <c r="B92" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="61">
+      <c r="C92" s="60">
         <v>82</v>
       </c>
-      <c r="D92" s="62" t="s">
+      <c r="D92" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="63">
+      <c r="E92" s="62">
         <v>45064</v>
       </c>
-      <c r="F92" s="61" t="s">
+      <c r="F92" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G92" s="61" t="s">
+      <c r="G92" s="60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="61" customFormat="1" ht="18">
+    <row r="93" spans="1:9" s="60" customFormat="1" ht="18">
       <c r="A93" s="57" t="s">
         <v>155</v>
       </c>
       <c r="B93" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="61">
+      <c r="C93" s="60">
         <v>83</v>
       </c>
-      <c r="D93" s="62" t="s">
+      <c r="D93" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="63">
+      <c r="E93" s="62">
         <v>45064</v>
       </c>
-      <c r="F93" s="61" t="s">
+      <c r="F93" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G93" s="61" t="s">
+      <c r="G93" s="60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="61" customFormat="1" ht="18">
+    <row r="94" spans="1:9" s="60" customFormat="1" ht="18">
       <c r="A94" s="57" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="61">
+      <c r="C94" s="60">
         <v>84</v>
       </c>
-      <c r="D94" s="62" t="s">
+      <c r="D94" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="E94" s="63">
+      <c r="E94" s="62">
         <v>45064</v>
       </c>
-      <c r="F94" s="61" t="s">
+      <c r="F94" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G94" s="61" t="s">
+      <c r="G94" s="60" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="61" customFormat="1" ht="18">
+    <row r="95" spans="1:9" s="60" customFormat="1" ht="18">
       <c r="A95" s="57" t="s">
         <v>155</v>
       </c>
       <c r="B95" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C95" s="61">
+      <c r="C95" s="60">
         <v>85</v>
       </c>
-      <c r="D95" s="62" t="s">
+      <c r="D95" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="63">
+      <c r="E95" s="62">
         <v>45064</v>
       </c>
-      <c r="F95" s="61" t="s">
+      <c r="F95" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="61" t="s">
+      <c r="G95" s="60" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A96" s="48"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+    </row>
+    <row r="97" spans="1:9" s="64" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A97" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="64">
+        <v>82</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="65">
+        <v>45058</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H97" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I97" s="64" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3751,6 +3832,6 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>